--- a/data/trans_dic/P15D$ingresado-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.05927931011175429</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1598836836417669</v>
+        <v>0.1598836836417668</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1397870453838329</v>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05647638026993</v>
+        <v>0.06701456850268271</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02885252128068928</v>
+        <v>0.02843430332089752</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05346211676436875</v>
+        <v>0.04498174146867923</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03300181572542761</v>
+        <v>0.03344898916255438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0</v>
+        <v>0.01492668984172151</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3520857801680221</v>
+        <v>0.3593591094647288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1550692159927104</v>
+        <v>0.1682536406020252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1380157796130367</v>
+        <v>0.1355762136395231</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.2146370130713715</v>
+        <v>0.2330960112070505</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2963392889655821</v>
+        <v>0.2478082849567196</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5776044538793422</v>
+        <v>0.5457239624385607</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.301674726579441</v>
+        <v>0.277697108650912</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1511302990572616</v>
+        <v>0.141194422555056</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1162858064322499</v>
+        <v>0.131940022658334</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3941349675331427</v>
+        <v>0.3786405839288199</v>
       </c>
     </row>
     <row r="7">
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02865494992258072</v>
+        <v>0.02783231961552235</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01393123575520197</v>
+        <v>0.01209432247050007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02039253079167588</v>
+        <v>0.02077146877712239</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>0.01814586966573729</v>
+        <v>0.01828839188321691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01845129538009277</v>
+        <v>0.01819971591697143</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0290220862165586</v>
+        <v>0.02865540008810397</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>0</v>
@@ -876,36 +876,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2845325483497699</v>
+        <v>0.2965271737530269</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1168009835808282</v>
+        <v>0.1235051620041421</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.183963676047364</v>
+        <v>0.1811034764813287</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5246974040859501</v>
+        <v>0.5113446809978381</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.1610545027757824</v>
+        <v>0.165304939821369</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2844409227954891</v>
+        <v>0.2775443626565632</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.1928830300257705</v>
+        <v>0.2158125012500964</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1018655782891155</v>
+        <v>0.103664350324336</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1677841348597423</v>
+        <v>0.1669243808731633</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3411957323608114</v>
+        <v>0.3391237168708359</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.1809787845883384</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07274712853331593</v>
+        <v>0.07274712853331591</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.0708021734316136</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03571158949891789</v>
+        <v>0.03256897998659345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02806512851831529</v>
+        <v>0.02964770438528213</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06640501041021246</v>
+        <v>0.07684996489314856</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05491785947424042</v>
+        <v>0.05878571282237013</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0221013447594068</v>
+        <v>0.02170066190542582</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03561315168164783</v>
+        <v>0.04215697493204856</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0537592401229762</v>
+        <v>0.05359545453551227</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05971143176449843</v>
+        <v>0.0605196882738599</v>
       </c>
     </row>
     <row r="12">
@@ -1008,40 +1008,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2812554448408031</v>
+        <v>0.3198201676072028</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.235315947216827</v>
+        <v>0.2284125430831934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2883776019478117</v>
+        <v>0.2854067364372859</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3253669199362485</v>
+        <v>0.3307003098523825</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3200343854665781</v>
+        <v>0.3291122107167225</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2156854384374219</v>
+        <v>0.2121948632716117</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4025654177398738</v>
+        <v>0.4395792748840017</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.197302741327845</v>
+        <v>0.1953510833404918</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2237883348286903</v>
+        <v>0.2217514747889587</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1764747984794996</v>
+        <v>0.1891660793525334</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.271010559212946</v>
+        <v>0.28080974566211</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2324566998116156</v>
+        <v>0.2315538276459791</v>
       </c>
     </row>
     <row r="13">
@@ -1100,38 +1100,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04919899571148068</v>
+        <v>0.04795870277773578</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03915967362944126</v>
+        <v>0.04064868773126792</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03291579868302648</v>
+        <v>0.03337572413250464</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07069861016628495</v>
+        <v>0.06573654028452464</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02847601527574119</v>
+        <v>0.03864391066814776</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02065971741311002</v>
+        <v>0.02098702431408728</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03411285213680736</v>
+        <v>0.03476725996239475</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04357657656347547</v>
+        <v>0.03128176498302562</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03837018709126179</v>
+        <v>0.03900840901883531</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06232398454514565</v>
+        <v>0.06562923964081656</v>
       </c>
     </row>
     <row r="15">
@@ -1142,38 +1142,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3948432013809948</v>
+        <v>0.3911482724328189</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3036777944393783</v>
+        <v>0.2889446239344379</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2603165147350787</v>
+        <v>0.2965337574530677</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2686421699960136</v>
+        <v>0.2634929730749245</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.1883766663062717</v>
+        <v>0.1877089086142625</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.306895080757624</v>
+        <v>0.3119203812964778</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1842217789188353</v>
+        <v>0.1835765462279069</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2690366606623548</v>
+        <v>0.3058623057467397</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2040969419240198</v>
+        <v>0.1987800426878115</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2149547077921638</v>
+        <v>0.2200653664048564</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1964863060685346</v>
+        <v>0.1899243002942444</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.1363437670940648</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1352789107166397</v>
+        <v>0.1352789107166396</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1537493313768178</v>
@@ -1241,29 +1241,29 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1149550401683813</v>
+        <v>0.114700595493711</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
-        <v>0.03462067322485704</v>
+        <v>0.03396226470670863</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06347592928487415</v>
+        <v>0.06294759140588699</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04419623978417098</v>
+        <v>0.04765547318198828</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04761942628286148</v>
+        <v>0.06737052017912271</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.106075090492165</v>
+        <v>0.1107353940823626</v>
       </c>
     </row>
     <row r="18">
@@ -1274,38 +1274,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.565224400794499</v>
+        <v>0.5766680845871296</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4510262962483748</v>
+        <v>0.4493992461408365</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4632342161286943</v>
+        <v>0.4070634357771881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4249820496631342</v>
+        <v>0.4129446437479468</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4127272281304841</v>
+        <v>0.5140502146158287</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.326716995002345</v>
+        <v>0.3262437948360019</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2317063682883927</v>
+        <v>0.2396340762844897</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3728428069367153</v>
+        <v>0.381126523372897</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1155205298868089</v>
+        <v>0.0847888479637042</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2810873663513753</v>
+        <v>0.2637795984269703</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2692880437909267</v>
+        <v>0.2749316908949853</v>
       </c>
     </row>
     <row r="19">
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08777737635565259</v>
+        <v>0.08819319121484259</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05357170411074108</v>
+        <v>0.05314397431691362</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1383,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08349083633301381</v>
+        <v>0.08757180582206255</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02288329697436064</v>
+        <v>0.02278246310824279</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02830532017122015</v>
+        <v>0.02745607287350009</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09789252925578851</v>
+        <v>0.09908564282034343</v>
       </c>
     </row>
     <row r="21">
@@ -1407,37 +1407,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.2644190926976971</v>
+        <v>0.3170234748690494</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6876123449464145</v>
+        <v>0.6751304726276961</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3802106728373112</v>
+        <v>0.3852491940895499</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4394529103726552</v>
+        <v>0.3626457680292951</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2352011331610012</v>
+        <v>0.2348417895563508</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1725049388686873</v>
+        <v>0.1836846960548894</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2588054206549134</v>
+        <v>0.267564359421777</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2256453580257688</v>
+        <v>0.2819305390061135</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1915293367617198</v>
+        <v>0.1884301266290876</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2637398775227139</v>
+        <v>0.2643399032297749</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2579990609948603</v>
+        <v>0.2644187440951658</v>
       </c>
     </row>
     <row r="22">
@@ -1502,34 +1502,34 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05409105786193895</v>
+        <v>0.05484945045239259</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1058416946376669</v>
+        <v>0.1042309105486664</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09979732491362334</v>
+        <v>0.08305632155007102</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03041672397917016</v>
+        <v>0.0303607891668714</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07779675603792809</v>
+        <v>0.07658000539063822</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02907827022788015</v>
+        <v>0.02867718399736302</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0888072633899014</v>
+        <v>0.08598894417027571</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0705842215012568</v>
+        <v>0.0656446207656444</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1041402018376011</v>
+        <v>0.1039681302935924</v>
       </c>
     </row>
     <row r="24">
@@ -1540,40 +1540,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4726532324446706</v>
+        <v>0.6398487475676808</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3143618552083556</v>
+        <v>0.2927959255465138</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4786067311451761</v>
+        <v>0.4528207746408475</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4282587988638936</v>
+        <v>0.3963840204998411</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3036094240748914</v>
+        <v>0.3060669168606318</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3084455323533803</v>
+        <v>0.3090142315070963</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2803200080949207</v>
+        <v>0.2703632174799581</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2229633055539394</v>
+        <v>0.2227618134751993</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.270807770028998</v>
+        <v>0.2876936215994885</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2503631079422608</v>
+        <v>0.2595125565396691</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2763926328385113</v>
+        <v>0.2713251503791007</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2432683037249094</v>
+        <v>0.2434835812321105</v>
       </c>
     </row>
     <row r="25">
@@ -1597,7 +1597,7 @@
         <v>0.1120307116734854</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1628787115470358</v>
+        <v>0.1628787115470359</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.05394492976196631</v>
@@ -1632,40 +1632,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08150827468456871</v>
+        <v>0.08172693928123792</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05362065584479793</v>
+        <v>0.05387923259038953</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07249023741365046</v>
+        <v>0.07107788922375817</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1160517388288644</v>
+        <v>0.1172636391142142</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07945209617903187</v>
+        <v>0.08397043968260159</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06372169424785272</v>
+        <v>0.06251196491602909</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.05801759224057974</v>
+        <v>0.05969507980994264</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08150899384747058</v>
+        <v>0.07938486709833006</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1089846622006456</v>
+        <v>0.1080821222570363</v>
       </c>
     </row>
     <row r="27">
@@ -1676,40 +1676,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2111226384653651</v>
+        <v>0.215573056269215</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1201999321074332</v>
+        <v>0.1198929040208837</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1599348070090502</v>
+        <v>0.1666397428475671</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2269383484211031</v>
+        <v>0.2310565377963148</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.168345653875251</v>
+        <v>0.1685264713670262</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1509301942085568</v>
+        <v>0.1501177379075172</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1056439536739801</v>
+        <v>0.1073111036069275</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1491415700738546</v>
+        <v>0.1479370194448698</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1743550545165658</v>
+        <v>0.1742723104973218</v>
       </c>
     </row>
     <row r="28">
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1904</v>
+        <v>2259</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1720</v>
+        <v>1696</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -2003,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2368</v>
+        <v>1993</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2980</v>
+        <v>3020</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2023,36 +2023,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11871</v>
+        <v>12116</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9247</v>
+        <v>10033</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6070</v>
+        <v>5963</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>6581</v>
+        <v>7147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5412</v>
+        <v>4526</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13049</v>
+        <v>12329</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>13365</v>
+        <v>12303</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13646</v>
+        <v>12749</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7238</v>
+        <v>8212</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17062</v>
+        <v>16391</v>
       </c>
     </row>
     <row r="8">
@@ -2155,13 +2155,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1001</v>
+        <v>972</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1147</v>
+        <v>996</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
       </c>
       <c r="J10" s="6" t="inlineStr"/>
       <c r="K10" s="6" t="n">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2221</v>
+        <v>2190</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2134</v>
+        <v>2107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0</v>
@@ -2195,36 +2195,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9940</v>
+        <v>10359</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9615</v>
+        <v>10167</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9356</v>
+        <v>9210</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17418</v>
+        <v>16975</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>6125</v>
+        <v>6287</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6451</v>
+        <v>6294</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>10317</v>
+        <v>11544</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12259</v>
+        <v>12476</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12338</v>
+        <v>12275</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>16559</v>
+        <v>16459</v>
       </c>
     </row>
     <row r="12">
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1907</v>
+        <v>1739</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1006</v>
+        <v>1063</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2560</v>
+        <v>2962</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2345,22 +2345,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1376</v>
+        <v>1472</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2949</v>
+        <v>3490</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3274</v>
+        <v>3264</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4121</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="15">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4199</v>
+        <v>4775</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12568</v>
+        <v>12199</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10341</v>
+        <v>10234</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12543</v>
+        <v>12748</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4294</v>
+        <v>4415</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6339</v>
+        <v>6236</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10083</v>
+        <v>11011</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6011</v>
+        <v>5952</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6344</v>
+        <v>6286</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>14611</v>
+        <v>15662</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>16506</v>
+        <v>17103</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16043</v>
+        <v>15981</v>
       </c>
     </row>
     <row r="16">
@@ -2507,38 +2507,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1416</v>
+        <v>1470</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>949</v>
+        <v>962</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3955</v>
+        <v>3677</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>697</v>
+        <v>946</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3100</v>
+        <v>2226</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2046</v>
+        <v>2080</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5519</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="19">
@@ -2549,38 +2549,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7714</v>
+        <v>7642</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10981</v>
+        <v>10449</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7505</v>
+        <v>8550</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15026</v>
+        <v>14738</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>6590</v>
+        <v>6567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7514</v>
+        <v>7637</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6009</v>
+        <v>5988</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7857</v>
+        <v>8932</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>14520</v>
+        <v>14142</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>11461</v>
+        <v>11733</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>17399</v>
+        <v>16818</v>
       </c>
     </row>
     <row r="20">
@@ -2692,29 +2692,29 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3621</v>
+        <v>3613</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="n">
-        <v>1051</v>
+        <v>1031</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2431</v>
+        <v>2411</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>850</v>
+        <v>917</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2112</v>
+        <v>2988</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>7404</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="23">
@@ -2725,38 +2725,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5297</v>
+        <v>5404</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5828</v>
+        <v>5807</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6480</v>
+        <v>5694</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13385</v>
+        <v>13006</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4074</v>
+        <v>5074</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>9918</v>
+        <v>9904</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8875</v>
+        <v>9179</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>7174</v>
+        <v>7334</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6316</v>
+        <v>4636</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12465</v>
+        <v>11698</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>18796</v>
+        <v>19190</v>
       </c>
     </row>
     <row r="24">
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2878,19 +2878,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3023</v>
+        <v>3171</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1139</v>
+        <v>1105</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>5320</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="27">
@@ -2902,37 +2902,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>4574</v>
+        <v>5484</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7517</v>
+        <v>7381</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6896</v>
+        <v>6987</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4005</v>
+        <v>3305</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5958</v>
+        <v>5949</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5055</v>
+        <v>5382</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>9371</v>
+        <v>9688</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3106</v>
+        <v>3881</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>8165</v>
+        <v>8033</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>10611</v>
+        <v>10635</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>14021</v>
+        <v>14370</v>
       </c>
     </row>
     <row r="28">
@@ -3041,34 +3041,34 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2436</v>
+        <v>2399</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5408</v>
+        <v>4501</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4407</v>
+        <v>4339</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>6769</v>
+        <v>6554</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3904</v>
+        <v>3631</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>8297</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="31">
@@ -3079,40 +3079,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2804</v>
+        <v>3796</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6926</v>
+        <v>6451</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7268</v>
+        <v>6876</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9856</v>
+        <v>9122</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>6862</v>
+        <v>6917</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>16715</v>
+        <v>16746</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>11250</v>
+        <v>10850</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>12632</v>
+        <v>12620</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>7727</v>
+        <v>8209</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>19084</v>
+        <v>19781</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>15289</v>
+        <v>15009</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>19380</v>
+        <v>19398</v>
       </c>
     </row>
     <row r="32">
@@ -3215,40 +3215,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>10032</v>
+        <v>10059</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>15216</v>
+        <v>15289</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>14472</v>
+        <v>14190</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>25650</v>
+        <v>25918</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>18447</v>
+        <v>19496</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>13820</v>
+        <v>13558</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>31220</v>
+        <v>32123</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>31780</v>
+        <v>30952</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>49392</v>
+        <v>48983</v>
       </c>
     </row>
     <row r="35">
@@ -3259,40 +3259,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>25984</v>
+        <v>26532</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>34109</v>
+        <v>34022</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>31928</v>
+        <v>33267</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>50159</v>
+        <v>51069</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>39086</v>
+        <v>39128</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>32734</v>
+        <v>32558</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>56848</v>
+        <v>57745</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>58150</v>
+        <v>57681</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>79018</v>
+        <v>78981</v>
       </c>
     </row>
     <row r="36">
